--- a/test/acceptance/data/RedPencil/RedPencilSpecification.xlsx
+++ b/test/acceptance/data/RedPencil/RedPencilSpecification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="475" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="657" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalConstants" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
     <definedName function="false" hidden="false" name="maximumReduction" vbProcedure="false">GlobalConstants!$B$4</definedName>
     <definedName function="false" hidden="false" name="minimumReduction" vbProcedure="false">GlobalConstants!$B$3</definedName>
     <definedName function="false" hidden="false" name="reductionDate" vbProcedure="false">ReductionLimitOneTable!$B$7</definedName>
-    <definedName function="false" hidden="false" name="saveReduction" vbProcedure="false">#ref!!$b$6</definedName>
+    <definedName function="false" hidden="false" name="saveReduction" vbProcedure="false">#ref!!$B$6</definedName>
     <definedName function="false" hidden="false" name="stablePhase" vbProcedure="false">GlobalConstants!$B$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -204,97 +204,105 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Excel Built-in FitTableCell" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -306,8 +314,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="1" pane="topLeft" sqref="A20:E35 B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B12:B13 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -315,8 +323,8 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+    <row r="1" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>0</v>
       </c>
@@ -327,7 +335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
@@ -338,7 +346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
@@ -349,7 +357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
@@ -363,7 +371,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -376,47 +384,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B6" activeCellId="1" pane="topLeft" sqref="A20:E35 B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="B12:B13 A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -431,8 +439,8 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A8" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A20" activeCellId="0" pane="topLeft" sqref="A20:E35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -441,17 +449,17 @@
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36.15" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="36.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -460,7 +468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -468,7 +476,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -477,12 +485,12 @@
         <v>41680</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -505,7 +513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -519,7 +527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -534,29 +542,29 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -573,7 +581,7 @@
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>10</v>
       </c>
@@ -585,14 +593,14 @@
         <f aca="false">ROUND(A20*(100-B20)/100,2)</f>
         <v>9.6</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>10</v>
       </c>
@@ -604,7 +612,7 @@
         <f aca="false">ROUND(A21*(100-B21)/100,2)</f>
         <v>9.5</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -612,7 +620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>10</v>
       </c>
@@ -624,7 +632,7 @@
         <f aca="false">ROUND(A22*(100-B22)/100,2)</f>
         <v>7.25</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="D22" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -632,7 +640,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>10</v>
       </c>
@@ -644,7 +652,7 @@
         <f aca="false">ROUND(A23*(100-B23)/100,2)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="D23" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -652,7 +660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>10</v>
       </c>
@@ -664,14 +672,14 @@
         <f aca="false">ROUND(A24*(100-B24)/100,2)</f>
         <v>4.9</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>10</v>
       </c>
@@ -682,14 +690,14 @@
         <f aca="false">ROUND(A25*(100-B25)/100,2)</f>
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>199</v>
       </c>
@@ -701,14 +709,14 @@
         <f aca="false">ROUND(A26*(100-B26)/100,2)</f>
         <v>191.04</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>199</v>
       </c>
@@ -720,7 +728,7 @@
         <f aca="false">ROUND(A27*(100-B27)/100,2)</f>
         <v>189.05</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -728,7 +736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>199</v>
       </c>
@@ -740,7 +748,7 @@
         <f aca="false">ROUND(A28*(100-B28)/100,2)</f>
         <v>144.28</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -748,7 +756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>199</v>
       </c>
@@ -760,7 +768,7 @@
         <f aca="false">ROUND(A29*(100-B29)/100,2)</f>
         <v>99.5</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -768,7 +776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>199</v>
       </c>
@@ -780,12 +788,12 @@
         <f aca="false">ROUND(A30*(100-B30)/100,2)</f>
         <v>97.51</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>199</v>
       </c>
@@ -796,12 +804,12 @@
         <f aca="false">ROUND(A31*(100-B31)/100,2)</f>
         <v>258.7</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>0.05</v>
       </c>
@@ -812,14 +820,14 @@
         <f aca="false">ROUND(A32*(100-B32)/100,2)</f>
         <v>0.05</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.05" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>0.05</v>
       </c>
@@ -830,7 +838,7 @@
         <f aca="false">ROUND(A33*(100-B33)/100,2)</f>
         <v>0.04</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
@@ -838,7 +846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>0.05</v>
       </c>
@@ -849,13 +857,13 @@
         <f aca="false">ROUND(A34*(100-B34)/100,2)</f>
         <v>0.03</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="4" t="n">
         <f aca="false">reductionDate</f>
         <v>41680</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.35" outlineLevel="0" r="35">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>0.05</v>
       </c>
@@ -866,16 +874,16 @@
         <f aca="false">ROUND(A35*(100-B35)/100,2)</f>
         <v>0.02</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1048576"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
